--- a/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
+++ b/노현우팀 프로젝트 파일/개발일정표(노현우팀).xlsx
@@ -952,7 +952,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E14:E15"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1850,8 +1850,12 @@
       <c r="J26" s="7">
         <v>45693</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="K26" s="7">
+        <v>45678</v>
+      </c>
+      <c r="L26" s="7">
+        <v>45678</v>
+      </c>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
